--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559215.2103632732</v>
+        <v>561562.7509642077</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346307</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.9497076</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7502721.559740962</v>
+        <v>7448472.78957218</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.93764090066993</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>37.32353873215714</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>235.4551847859273</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>25.35996799970812</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W7" t="n">
-        <v>256.4561542453789</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1145,7 +1147,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>316.5487336740566</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>332.7770642499989</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>101.3702069802973</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>300.7253484649567</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.550764568896</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1844,7 +1846,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>123.7955276347259</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>164.6905677185654</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -1910,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>116.8763835457721</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2065,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>295.1362108586948</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>75.55566364162141</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>175.6983641828944</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>266.2305343718495</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>336.748425770774</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>256.4561542453792</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>381.6926586594372</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>195.5910026540162</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>127.7349619690958</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.8812695548176</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>128.4824399729437</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.7480363891213</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.780476428415</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.6244219116074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>207.0439210185391</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>305.6096491809507</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>133.6001941467923</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.65557248972621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>374.3527907248229</v>
+        <v>289.8674683347323</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.7513232866608</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>118.9046835062789</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>12.81863829711415</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3569,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.3381460436741</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.8279795613426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>331.3046874039133</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3755,7 +3757,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>357.5058497656033</v>
       </c>
     </row>
     <row r="42">
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.9005421603009</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>23.07869429521003</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>257.8471546855321</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>92.15924934314423</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>174.1538699297672</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>11.61260049965488</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010124</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1783.744680642958</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C2" t="n">
-        <v>1390.569179145889</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D2" t="n">
-        <v>1005.128050362556</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E2" t="n">
-        <v>602.544525479101</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F2" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
@@ -4337,16 +4339,16 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1044.265390756362</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4358,22 +4360,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2161.142036303753</v>
+        <v>1899.940889689273</v>
       </c>
       <c r="V2" t="n">
-        <v>1819.035227007271</v>
+        <v>1557.834080392792</v>
       </c>
       <c r="W2" t="n">
-        <v>1819.035227007271</v>
+        <v>1557.834080392792</v>
       </c>
       <c r="X2" t="n">
-        <v>1819.035227007271</v>
+        <v>1168.381475325849</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.035227007271</v>
+        <v>771.8907662464499</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N3" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4431,19 +4433,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2365.64850507718</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C5" t="n">
-        <v>2127.814985091395</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D5" t="n">
-        <v>1742.373856308063</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
@@ -4598,19 +4600,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L6" t="n">
-        <v>643.9940382195842</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.492043226187</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N6" t="n">
-        <v>1814.990048232789</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O6" t="n">
-        <v>2331.51033082377</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.51033082377</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W7" t="n">
-        <v>689.7133721932184</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>455.6330499762015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.5209887928449</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1965.153759365783</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C8" t="n">
-        <v>1571.978257868714</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>1186.537129085382</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>783.9536042019261</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>367.0591657319038</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
         <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1665.394817750351</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C11" t="n">
-        <v>1665.394817750351</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="D11" t="n">
-        <v>1279.953688967018</v>
+        <v>786.0349437223717</v>
       </c>
       <c r="E11" t="n">
-        <v>877.3701640835627</v>
+        <v>383.4514188389163</v>
       </c>
       <c r="F11" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
         <v>47.31297010154361</v>
@@ -5042,22 +5044,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O11" t="n">
-        <v>2017.461012945658</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
@@ -5069,22 +5071,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2263.254356612234</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>2007.501627046832</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V11" t="n">
-        <v>1665.394817750351</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W11" t="n">
-        <v>1665.394817750351</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X11" t="n">
-        <v>1665.394817750351</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y11" t="n">
-        <v>1665.394817750351</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5123,10 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M12" t="n">
         <v>858.0088487631995</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>784.5587760470498</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C14" t="n">
-        <v>784.5587760470498</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D14" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E14" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5309,19 +5311,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U14" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V14" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W14" t="n">
-        <v>1396.789931183585</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X14" t="n">
-        <v>1007.337326116642</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y14" t="n">
-        <v>784.5587760470498</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>272.5108437565973</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631995</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172.3589576113678</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C17" t="n">
         <v>47.31297010154361</v>
@@ -5528,7 +5530,7 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5537,28 +5539,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.294396270549</v>
       </c>
       <c r="U17" t="n">
-        <v>2071.902861797301</v>
+        <v>1943.541666705147</v>
       </c>
       <c r="V17" t="n">
-        <v>1729.796052500819</v>
+        <v>1601.434857408666</v>
       </c>
       <c r="W17" t="n">
-        <v>1358.797017469107</v>
+        <v>1230.435822376953</v>
       </c>
       <c r="X17" t="n">
-        <v>969.3444124021636</v>
+        <v>840.9832173100099</v>
       </c>
       <c r="Y17" t="n">
-        <v>572.8537033227647</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.64850507718</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="D19" t="n">
         <v>47.31297010154361</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V19" t="n">
-        <v>330.643372170366</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>165.3699231780811</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>165.3699231780811</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1243.319282867973</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C20" t="n">
-        <v>850.1437813709033</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="D20" t="n">
-        <v>464.702652587571</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411553</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031227</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y20" t="n">
-        <v>1243.319282867973</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411553</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411553</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411553</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>760.7500664282172</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>525.0310145964513</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>239.5922228383523</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>239.5922228383523</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5922228383523</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>62.11912770411553</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411553</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1178.900155517229</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C23" t="n">
-        <v>909.9804238284923</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D23" t="n">
-        <v>524.5392950451601</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E23" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F23" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U23" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V23" t="n">
-        <v>2335.842504695284</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W23" t="n">
-        <v>1964.843469663571</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X23" t="n">
-        <v>1575.390864596628</v>
+        <v>2025.498580056196</v>
       </c>
       <c r="Y23" t="n">
-        <v>1178.900155517229</v>
+        <v>1629.007870976798</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V25" t="n">
-        <v>802.6419131733114</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W25" t="n">
-        <v>519.3115111044891</v>
+        <v>2106.601884627302</v>
       </c>
       <c r="X25" t="n">
-        <v>285.2311888874722</v>
+        <v>1872.521562410285</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>1649.409501226929</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>756.9441605950906</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="C26" t="n">
-        <v>371.396020535053</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D26" t="n">
-        <v>371.396020535053</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E26" t="n">
-        <v>371.396020535053</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F26" t="n">
         <v>371.396020535053</v>
@@ -6224,25 +6226,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>503.6092283712875</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M26" t="n">
-        <v>1049.610128415868</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N26" t="n">
-        <v>1577.42141205333</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O26" t="n">
-        <v>2017.461012945658</v>
+        <v>2064.796883612205</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
         <v>2365.64850507718</v>
@@ -6251,25 +6253,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U26" t="n">
-        <v>1943.38222045283</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V26" t="n">
-        <v>1943.38222045283</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W26" t="n">
-        <v>1943.38222045283</v>
+        <v>1570.222296867806</v>
       </c>
       <c r="X26" t="n">
-        <v>1553.929615385886</v>
+        <v>1570.222296867806</v>
       </c>
       <c r="Y26" t="n">
-        <v>1157.438906306488</v>
+        <v>1173.731587788408</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>272.5108437565964</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631986</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2038.931431892307</v>
+        <v>819.7347785328983</v>
       </c>
       <c r="T28" t="n">
-        <v>1803.212380060541</v>
+        <v>819.7347785328983</v>
       </c>
       <c r="U28" t="n">
-        <v>1803.212380060541</v>
+        <v>819.7347785328983</v>
       </c>
       <c r="V28" t="n">
-        <v>1803.212380060541</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W28" t="n">
-        <v>1803.212380060541</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X28" t="n">
-        <v>1569.132057843524</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M29" t="n">
-        <v>1392.575851912381</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N29" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
@@ -6491,13 +6493,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U29" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V29" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W29" t="n">
         <v>2012.367660239684</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1632.455536436182</v>
+        <v>530.4771359200668</v>
       </c>
       <c r="C31" t="n">
-        <v>1632.455536436182</v>
+        <v>360.2720179860559</v>
       </c>
       <c r="D31" t="n">
-        <v>1632.455536436182</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E31" t="n">
-        <v>1632.455536436182</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F31" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>796.4564810992425</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>530.4771359200668</v>
       </c>
       <c r="W31" t="n">
-        <v>2082.318103008358</v>
+        <v>530.4771359200668</v>
       </c>
       <c r="X31" t="n">
-        <v>1848.237780791341</v>
+        <v>530.4771359200668</v>
       </c>
       <c r="Y31" t="n">
-        <v>1632.455536436182</v>
+        <v>530.4771359200668</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1410.588488273172</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.588488273172</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="D32" t="n">
-        <v>1410.588488273172</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.453214517072</v>
+        <v>772.9040239058595</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>356.0095854358373</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6701,22 +6703,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L32" t="n">
-        <v>318.7636682303387</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N32" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
@@ -6728,22 +6730,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U32" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V32" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W32" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X32" t="n">
-        <v>1410.588488273172</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y32" t="n">
-        <v>1410.588488273172</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>678.1322124729941</v>
       </c>
       <c r="M33" t="n">
-        <v>1436.116207068686</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P33" t="n">
         <v>2365.648505077179</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.1827088106572</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C34" t="n">
-        <v>521.9775908766464</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D34" t="n">
-        <v>366.3444777791613</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="E34" t="n">
-        <v>210.7856656383638</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7856656383638</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G34" t="n">
-        <v>210.7856656383638</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
         <v>47.31297010154361</v>
@@ -6889,19 +6891,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W34" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X34" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y34" t="n">
-        <v>877.3907275019585</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2023.541695780699</v>
+        <v>1938.202986295759</v>
       </c>
       <c r="C35" t="n">
-        <v>1630.366194283629</v>
+        <v>1545.027484798689</v>
       </c>
       <c r="D35" t="n">
-        <v>1244.925065500297</v>
+        <v>1159.586356015357</v>
       </c>
       <c r="E35" t="n">
-        <v>842.3415406168415</v>
+        <v>757.0028311319015</v>
       </c>
       <c r="F35" t="n">
-        <v>425.4471021468192</v>
+        <v>340.1083926618793</v>
       </c>
       <c r="G35" t="n">
         <v>47.31297010154361</v>
@@ -6959,28 +6961,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V35" t="n">
-        <v>2023.541695780699</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W35" t="n">
-        <v>2023.541695780699</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X35" t="n">
-        <v>2023.541695780699</v>
+        <v>1938.202986295759</v>
       </c>
       <c r="Y35" t="n">
-        <v>2023.541695780699</v>
+        <v>1938.202986295759</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
         <v>47.31297010154361</v>
@@ -7020,37 +7022,37 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L36" t="n">
-        <v>47.31297010154361</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>632.8109751081457</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>1218.308980114748</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O36" t="n">
-        <v>1734.829262705729</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P36" t="n">
-        <v>2140.450631422126</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>478.9606185943132</v>
+        <v>1754.512341385072</v>
       </c>
       <c r="C37" t="n">
-        <v>308.7555006603025</v>
+        <v>1584.307223451061</v>
       </c>
       <c r="D37" t="n">
-        <v>153.1223875628172</v>
+        <v>1584.307223451061</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1584.307223451061</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1584.307223451061</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1584.307223451061</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1584.307223451061</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S37" t="n">
-        <v>948.7599926430961</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="T37" t="n">
-        <v>713.0409408113302</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="U37" t="n">
-        <v>713.0409408113302</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="V37" t="n">
-        <v>713.0409408113302</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="W37" t="n">
-        <v>713.0409408113302</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="X37" t="n">
-        <v>478.9606185943132</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="Y37" t="n">
-        <v>478.9606185943132</v>
+        <v>1939.720360076373</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>764.5715220321224</v>
+        <v>853.6512271106099</v>
       </c>
       <c r="C38" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="D38" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E38" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F38" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7175,16 +7177,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O38" t="n">
         <v>2365.64850507718</v>
@@ -7205,19 +7207,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U38" t="n">
-        <v>2109.895775511779</v>
+        <v>2352.700385585146</v>
       </c>
       <c r="V38" t="n">
-        <v>1767.788966215297</v>
+        <v>2010.593576288664</v>
       </c>
       <c r="W38" t="n">
-        <v>1396.789931183585</v>
+        <v>1639.594541256952</v>
       </c>
       <c r="X38" t="n">
-        <v>1007.337326116642</v>
+        <v>1250.141936190009</v>
       </c>
       <c r="Y38" t="n">
-        <v>764.5715220321224</v>
+        <v>853.6512271106099</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K39" t="n">
-        <v>194.5661265746808</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L39" t="n">
-        <v>678.1322124729941</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M39" t="n">
-        <v>1263.630217479596</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1849.128222486198</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.648505077179</v>
@@ -7357,22 +7359,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>745.9439088256454</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U40" t="n">
-        <v>745.9439088256454</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V40" t="n">
-        <v>479.9645636464696</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
-        <v>196.6341615776473</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>196.6341615776473</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
         <v>47.31297010154361</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1605.196864978524</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C41" t="n">
-        <v>1212.021363481455</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D41" t="n">
-        <v>1212.021363481455</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3701640835627</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
         <v>47.31297010154361</v>
@@ -7409,22 +7411,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L41" t="n">
-        <v>540.6332618200724</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M41" t="n">
-        <v>1086.634161864653</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N41" t="n">
-        <v>1614.445445502115</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O41" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
         <v>2365.64850507718</v>
@@ -7448,13 +7450,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W41" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X41" t="n">
-        <v>1605.196864978524</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y41" t="n">
-        <v>1605.196864978524</v>
+        <v>2004.531485111924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7533,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
         <v>47.31297010154361</v>
@@ -7594,25 +7596,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S43" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T43" t="n">
-        <v>589.1399514439072</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U43" t="n">
-        <v>303.7011596858081</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>303.7011596858081</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1027.481086086701</v>
+        <v>1169.999904830382</v>
       </c>
       <c r="C44" t="n">
-        <v>1027.481086086701</v>
+        <v>1169.999904830382</v>
       </c>
       <c r="D44" t="n">
-        <v>767.029414687174</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E44" t="n">
-        <v>767.029414687174</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F44" t="n">
-        <v>356.589862932481</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G44" t="n">
-        <v>356.589862932481</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>32.50681249897168</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>434.7786171737463</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>690.0357680013394</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>690.0357680013394</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O44" t="n">
-        <v>1092.307572676114</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>1440.495064807636</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>2272.558354225519</v>
       </c>
       <c r="U44" t="n">
-        <v>1369.587895383183</v>
+        <v>2272.558354225519</v>
       </c>
       <c r="V44" t="n">
-        <v>1027.481086086701</v>
+        <v>1930.451544929038</v>
       </c>
       <c r="W44" t="n">
-        <v>1027.481086086701</v>
+        <v>1559.452509897325</v>
       </c>
       <c r="X44" t="n">
-        <v>1027.481086086701</v>
+        <v>1169.999904830382</v>
       </c>
       <c r="Y44" t="n">
-        <v>1027.481086086701</v>
+        <v>1169.999904830382</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>782.4855416509142</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>631.8313112110064</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>501.7423438324868</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>365.2958529433745</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>240.8640468265063</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>120.8042288983708</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>352.2459585611981</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
-        <v>754.5177632359728</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>754.5177632359728</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N45" t="n">
-        <v>820.7970155990351</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O45" t="n">
-        <v>1223.06882027381</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.340624948584</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>1601.423581846649</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>1466.492904746518</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>1289.509092945426</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1289.509092945426</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1289.509092945426</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
-        <v>1289.509092945426</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>1113.596093016368</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>934.2818760918756</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1217.020545073926</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="C46" t="n">
-        <v>1046.815427139916</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="D46" t="n">
-        <v>891.1823140424303</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E46" t="n">
-        <v>735.6235019016328</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T46" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U46" t="n">
-        <v>1625.340624948584</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="V46" t="n">
-        <v>1625.340624948584</v>
+        <v>1814.230368139906</v>
       </c>
       <c r="W46" t="n">
-        <v>1625.340624948584</v>
+        <v>1530.899966071083</v>
       </c>
       <c r="X46" t="n">
-        <v>1625.340624948584</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="Y46" t="n">
-        <v>1402.228563765228</v>
+        <v>1464.201482535628</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7987,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>500.9472399802273</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,16 +8066,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N3" t="n">
-        <v>673.3036524843452</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8292,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -8310,10 +8312,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.4711574522872</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8541,16 +8543,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>588.7923855055299</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>277.8952841518222</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8775,7 +8777,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>422.8212561536984</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N12" t="n">
         <v>676.7842391234617</v>
@@ -9009,10 +9011,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536975</v>
       </c>
       <c r="N15" t="n">
         <v>676.7842391234617</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9243,16 +9245,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>422.8212561536984</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9723,16 +9725,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>614.1534811140714</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9890,10 +9892,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>267.4792869621647</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9954,16 +9956,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>92.83741255226374</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
@@ -10118,19 +10120,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10349,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L32" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10364,10 +10366,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>290.0251085634805</v>
       </c>
       <c r="M33" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>92.83741255226282</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10668,13 +10670,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585533</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>318.4607528074828</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10823,7 +10825,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10835,7 +10837,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
@@ -10902,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>238.3374974274113</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10914,13 +10916,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>526.4333644537654</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11075,7 +11077,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11136,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>422.8212561536984</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>569.9919810238536</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11297,25 +11299,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>407.560557484185</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>555.8989936612425</v>
+        <v>194.0418287534719</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>496.3955030940643</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>152.3208526148357</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.552157353613</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22600,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>215.8716635375902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>153.7885616961714</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>227.8352342700393</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W7" t="n">
-        <v>24.04094380275529</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.48239428282</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>92.48239428282028</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>79.94842983532311</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23309,22 +23311,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>119.8953894358802</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>95.76444978932625</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23549,19 +23551,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.9750374197089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>265.4482188473728</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>56.57502869761205</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23895,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>37.20039842073834</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23941,10 +23943,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>103.4214787759261</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>316.9701383469835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24175,13 +24177,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24190,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>56.04115481195237</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>123.0132121102492</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24221,10 +24223,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>48.80965324549976</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24421,10 +24423,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>24.04094380275495</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>7.551087822661486</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24491,7 +24493,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
@@ -24500,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>171.6980420273792</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>73.05296101018031</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.9996710167055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24731,16 +24733,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>124.7127622968036</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>17.54100829227411</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24892,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>131.803927412103</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.256518659915628</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>191.5137686160818</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>103.4214787759261</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24968,22 +24970,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.40302987259722</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.2253680817969</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>34.67833723205399</v>
+        <v>119.1636596221446</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25211,13 +25213,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>49.25190073272866</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25330,7 +25332,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>12.85879760301401</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25360,10 +25362,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -25375,10 +25377,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25405,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25445,7 +25447,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>240.3765639726332</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.1876559449308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25597,13 +25599,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.05296101018047</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>67.25300223070758</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25688,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>35.01995222300161</v>
       </c>
     </row>
     <row r="42">
@@ -25798,10 +25800,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>66.67097120124801</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25868,16 +25870,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>123.7395628099668</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>6.390337848175932</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>129.1063470730332</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>13.26013694372122</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>144.1400749395019</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947455</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>644157.5372859366</v>
+        <v>644157.5372859369</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644157.537285937</v>
+        <v>644157.5372859371</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644157.5372859369</v>
+        <v>644157.5372859366</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644157.5372859373</v>
+        <v>644157.5372859371</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725715.3234733957</v>
+        <v>644157.5372859365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725715.3234733958</v>
+        <v>644157.5372859371</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644157.5372859371</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644157.5372859371</v>
+        <v>644157.5372859369</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644157.5372859369</v>
+        <v>644157.5372859366</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644157.5372859366</v>
+        <v>644157.5372859365</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644157.5372859372</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519156.9102147061</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26322,19 @@
         <v>180687.3047541645</v>
       </c>
       <c r="E2" t="n">
+        <v>180687.3047541646</v>
+      </c>
+      <c r="F2" t="n">
         <v>180687.3047541645</v>
-      </c>
-      <c r="F2" t="n">
-        <v>180687.3047541644</v>
       </c>
       <c r="G2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="H2" t="n">
-        <v>203556.2798509409</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="I2" t="n">
-        <v>203556.2798509409</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="J2" t="n">
         <v>180687.3047541646</v>
@@ -26341,7 +26343,7 @@
         <v>180687.3047541645</v>
       </c>
       <c r="L2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="M2" t="n">
         <v>180687.3047541645</v>
@@ -26350,10 +26352,10 @@
         <v>180687.3047541645</v>
       </c>
       <c r="O2" t="n">
+        <v>180687.3047541645</v>
+      </c>
+      <c r="P2" t="n">
         <v>180687.3047541646</v>
-      </c>
-      <c r="P2" t="n">
-        <v>145636.8655354873</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="C4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="D4" t="n">
         <v>34799.20444337102</v>
       </c>
       <c r="E4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="F4" t="n">
         <v>34799.20444337102</v>
@@ -26433,31 +26435,31 @@
         <v>34799.20444337102</v>
       </c>
       <c r="H4" t="n">
-        <v>39261.69958392654</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="I4" t="n">
-        <v>39261.69958392654</v>
+        <v>34799.20444337103</v>
       </c>
       <c r="J4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="K4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337103</v>
       </c>
       <c r="L4" t="n">
         <v>34799.20444337102</v>
       </c>
       <c r="M4" t="n">
+        <v>34799.20444337103</v>
+      </c>
+      <c r="N4" t="n">
         <v>34799.20444337102</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>34799.20444337101</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>34799.20444337102</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27959.70184101204</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
         <v>35957.85727717314</v>
@@ -26509,7 +26511,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26528,31 +26530,31 @@
         <v>76302.64303362035</v>
       </c>
       <c r="E6" t="n">
+        <v>109930.2430336205</v>
+      </c>
+      <c r="F6" t="n">
         <v>109930.2430336204</v>
-      </c>
-      <c r="F6" t="n">
-        <v>109930.2430336203</v>
       </c>
       <c r="G6" t="n">
         <v>109930.2430336204</v>
       </c>
       <c r="H6" t="n">
-        <v>67148.6110044824</v>
+        <v>109930.2430336204</v>
       </c>
       <c r="I6" t="n">
-        <v>117084.0432118865</v>
+        <v>109930.2430336204</v>
       </c>
       <c r="J6" t="n">
-        <v>3615.087415108559</v>
+        <v>-44809.19133198299</v>
       </c>
       <c r="K6" t="n">
-        <v>109930.2430336204</v>
+        <v>109930.2430336203</v>
       </c>
       <c r="L6" t="n">
         <v>109930.2430336204</v>
       </c>
       <c r="M6" t="n">
-        <v>109930.2430336204</v>
+        <v>109930.2430336203</v>
       </c>
       <c r="N6" t="n">
         <v>109930.2430336204</v>
@@ -26561,7 +26563,7 @@
         <v>109930.2430336204</v>
       </c>
       <c r="P6" t="n">
-        <v>92971.98619525674</v>
+        <v>109930.2430336204</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -26829,7 +26831,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,19 +34707,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>351.8287486424433</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,16 +34786,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
+        <v>178.2129853711913</v>
+      </c>
+      <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N3" t="n">
-        <v>587.9315396301786</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.48300429637322</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>503.4202726513632</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>127.593836910897</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>330.4341341043865</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N12" t="n">
         <v>591.4121262692951</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>227.4725996515694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043856</v>
       </c>
       <c r="N15" t="n">
         <v>591.4121262692951</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>330.4341341043865</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>460.9053113835797</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36610,10 +36612,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>117.1778397212395</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,19 +36840,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L32" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,10 +37086,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>199.9647617065623</v>
       </c>
       <c r="M33" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>7.465299698096163</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043866</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.4725996515689</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37555,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>148.740562094078</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37634,13 +37636,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>433.7458055648765</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37795,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>330.4341341043865</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>257.8355058864577</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>406.3351562371461</v>
+        <v>44.47799132937547</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>406.3351562371461</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>66.94873976066906</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561562.7509642077</v>
+        <v>555854.5951563219</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462388</v>
+        <v>3854815.050462385</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7448472.78957218</v>
+        <v>7448472.789572185</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>336.7484257707738</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>37.32353873215714</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>225.95392306687</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>266.1333084341188</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>25.35996799970812</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -995,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1113,10 +1113,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1147,7 +1147,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>83.58885074692724</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>147.8279795613426</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>332.7770642499989</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>26.72957861409639</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300.7253484649567</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>194.9546421715525</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>164.6905677185654</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -1906,10 +1906,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>366.8512082264435</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>116.8763835457721</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>165.2599640362305</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2067,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>295.1362108586948</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>281.2672851354413</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>336.748425770774</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>207.0439210185391</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>256.4561542453792</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>198.887169051571</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2617,7 +2617,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>195.5910026540162</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>127.7349619690958</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>113.813880690381</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>349.7480363891213</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>150.780476428415</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>305.6096491809507</v>
+        <v>180.6482706948288</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.6001941467923</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3274,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>289.8674683347323</v>
+        <v>63.63778935445008</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>118.9046835062789</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>148.8302067746193</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>12.81863829711415</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3571,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -3726,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>12.71163128984886</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,10 +3757,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>357.5058497656033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>23.07869429521003</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>63.07653601197951</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>92.15924934314423</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010124</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.396020535053</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C2" t="n">
-        <v>371.396020535053</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="D2" t="n">
-        <v>371.396020535053</v>
+        <v>790.0464200059828</v>
       </c>
       <c r="E2" t="n">
-        <v>371.396020535053</v>
+        <v>387.4628951225273</v>
       </c>
       <c r="F2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4342,7 +4342,7 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1925.608904184852</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
         <v>2365.64850507718</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.940889689273</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>1557.834080392792</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W2" t="n">
-        <v>1557.834080392792</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X2" t="n">
-        <v>1168.381475325849</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y2" t="n">
-        <v>771.8907662464499</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="3">
@@ -4418,10 +4418,10 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.16403979929</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1725.662044805892</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O3" t="n">
         <v>1725.662044805892</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>440.488471598613</v>
+        <v>709.3099952694402</v>
       </c>
       <c r="C5" t="n">
-        <v>47.31297010154361</v>
+        <v>316.1344937723707</v>
       </c>
       <c r="D5" t="n">
         <v>47.31297010154361</v>
@@ -4579,10 +4579,10 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4591,28 +4591,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U5" t="n">
-        <v>2340.032375784546</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V5" t="n">
-        <v>1997.925566488064</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.926531456352</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="X5" t="n">
-        <v>1237.473926389409</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.9832173100099</v>
+        <v>1109.804740980837</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.879055999857</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N6" t="n">
-        <v>1701.875066013061</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O6" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4685,13 +4685,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4749,19 +4749,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154361</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W7" t="n">
         <v>47.31297010154361</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4804,16 +4804,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4828,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1648.722771317752</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1252.232062238354</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4989,25 +4989,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>196.6341615776473</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>196.6341615776473</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1179.210445219441</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="C11" t="n">
-        <v>786.0349437223717</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="D11" t="n">
-        <v>786.0349437223717</v>
+        <v>398.3955948927261</v>
       </c>
       <c r="E11" t="n">
-        <v>383.4514188389163</v>
+        <v>398.3955948927261</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>398.3955948927261</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>398.3955948927261</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>74.31254445921672</v>
       </c>
       <c r="I11" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1614.445445502115</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O11" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
         <v>2180.802944936232</v>
@@ -5071,22 +5071,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X11" t="n">
-        <v>1976.195900010237</v>
+        <v>783.8367236760583</v>
       </c>
       <c r="Y11" t="n">
-        <v>1579.705190930838</v>
+        <v>783.8367236760583</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>530.879055999857</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N12" t="n">
         <v>1443.506853769802</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
         <v>47.31297010154361</v>
@@ -5229,22 +5229,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1665.394817750351</v>
+        <v>1374.658158525486</v>
       </c>
       <c r="C14" t="n">
-        <v>1665.394817750351</v>
+        <v>981.482657028416</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.953688967018</v>
+        <v>981.482657028416</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5293,10 +5293,10 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2321.615293661099</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5308,22 +5308,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="Y14" t="n">
-        <v>1969.157795997781</v>
+        <v>1374.658158525486</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631986</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>440.488471598613</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
         <v>47.31297010154361</v>
@@ -5518,16 +5518,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O17" t="n">
         <v>2017.461012945658</v>
@@ -5545,22 +5545,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2199.294396270549</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U17" t="n">
-        <v>1943.541666705147</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V17" t="n">
-        <v>1601.434857408666</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W17" t="n">
-        <v>1230.435822376953</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="X17" t="n">
-        <v>840.9832173100099</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="Y17" t="n">
-        <v>840.9832173100099</v>
+        <v>1173.731587788408</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6182020620834</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N18" t="n">
         <v>1209.141762214911</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.3699231780811</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>165.3699231780811</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
         <v>47.31297010154361</v>
@@ -5706,19 +5706,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>948.7599926430961</v>
+        <v>781.830736040843</v>
       </c>
       <c r="V19" t="n">
-        <v>682.7806474639203</v>
+        <v>515.8513908616673</v>
       </c>
       <c r="W19" t="n">
-        <v>399.450245395098</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="X19" t="n">
-        <v>165.3699231780811</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.3699231780811</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1568.663050286385</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="C20" t="n">
-        <v>1175.487548789315</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D20" t="n">
-        <v>1175.487548789315</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E20" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F20" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
         <v>47.31297010154361</v>
@@ -5761,13 +5761,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N20" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P20" t="n">
         <v>2365.64850507718</v>
@@ -5776,28 +5776,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.64850507718</v>
+        <v>1621.280937914673</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.64850507718</v>
+        <v>1621.280937914673</v>
       </c>
       <c r="X20" t="n">
-        <v>2365.64850507718</v>
+        <v>1231.82833284773</v>
       </c>
       <c r="Y20" t="n">
-        <v>1969.157795997781</v>
+        <v>835.3376237683314</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>528.7100132738371</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
         <v>47.31297010154361</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>937.0300931484951</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>713.9180319651384</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1228.513125265401</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="C23" t="n">
-        <v>835.3376237683314</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D23" t="n">
-        <v>449.8964949849991</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E23" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F23" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
         <v>47.31297010154361</v>
@@ -5989,22 +5989,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P23" t="n">
         <v>2365.64850507718</v>
@@ -6019,22 +6019,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.64850507718</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.64850507718</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="X23" t="n">
-        <v>2025.498580056196</v>
+        <v>1410.588488273172</v>
       </c>
       <c r="Y23" t="n">
-        <v>1629.007870976798</v>
+        <v>1201.453214517072</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
         <v>2365.648505077179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>2106.601884627302</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>1872.521562410285</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>1649.409501226929</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1173.731587788408</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C26" t="n">
-        <v>1173.731587788408</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D26" t="n">
-        <v>788.2904590050753</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E26" t="n">
-        <v>788.2904590050753</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F26" t="n">
         <v>371.396020535053</v>
@@ -6229,19 +6229,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>550.9450990378335</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L26" t="n">
-        <v>550.9450990378335</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M26" t="n">
-        <v>1096.945999082414</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N26" t="n">
-        <v>1624.757282719876</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O26" t="n">
-        <v>2064.796883612205</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
         <v>2180.802944936232</v>
@@ -6250,28 +6250,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511779</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W26" t="n">
-        <v>1570.222296867806</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X26" t="n">
-        <v>1570.222296867806</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y26" t="n">
-        <v>1173.731587788408</v>
+        <v>572.2921508901752</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
         <v>2365.64850507718</v>
@@ -6411,22 +6411,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>819.7347785328983</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>819.7347785328983</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U28" t="n">
-        <v>819.7347785328983</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V28" t="n">
-        <v>553.7554333537225</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W28" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
         <v>47.31297010154361</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>825.9296003819453</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="C29" t="n">
-        <v>432.7540988848759</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154361</v>
+        <v>992.3336799324325</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>992.3336799324325</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>575.4392414624102</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>162.2764859504134</v>
       </c>
       <c r="H29" t="n">
         <v>47.31297010154361</v>
@@ -6466,16 +6466,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O29" t="n">
         <v>2365.64850507718</v>
@@ -6490,25 +6490,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W29" t="n">
-        <v>2012.367660239684</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.915055172741</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y29" t="n">
-        <v>1226.424346093342</v>
+        <v>1377.774808715765</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>530.4771359200668</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>360.2720179860559</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
         <v>47.31297010154361</v>
@@ -6651,22 +6651,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U31" t="n">
-        <v>796.4564810992425</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V31" t="n">
-        <v>530.4771359200668</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W31" t="n">
-        <v>530.4771359200668</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>530.4771359200668</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>530.4771359200668</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.663050286385</v>
+        <v>1356.204588490255</v>
       </c>
       <c r="C32" t="n">
-        <v>1175.487548789315</v>
+        <v>1356.204588490255</v>
       </c>
       <c r="D32" t="n">
-        <v>1175.487548789315</v>
+        <v>970.7634597069225</v>
       </c>
       <c r="E32" t="n">
-        <v>772.9040239058595</v>
+        <v>970.7634597069225</v>
       </c>
       <c r="F32" t="n">
-        <v>356.0095854358373</v>
+        <v>553.8690212369003</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6703,22 +6703,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>851.7967205028091</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M32" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N32" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
@@ -6730,22 +6730,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>1752.695297569654</v>
       </c>
       <c r="Y32" t="n">
-        <v>1969.157795997781</v>
+        <v>1356.204588490255</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>678.1322124729941</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479596</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486198</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
         <v>47.31297010154361</v>
@@ -6894,16 +6894,16 @@
         <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>663.3212008849971</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W34" t="n">
-        <v>663.3212008849971</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X34" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3212008849971</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1938.202986295759</v>
+        <v>1028.547312597006</v>
       </c>
       <c r="C35" t="n">
-        <v>1545.027484798689</v>
+        <v>635.3718110999364</v>
       </c>
       <c r="D35" t="n">
-        <v>1159.586356015357</v>
+        <v>249.9306823166041</v>
       </c>
       <c r="E35" t="n">
-        <v>757.0028311319015</v>
+        <v>249.9306823166041</v>
       </c>
       <c r="F35" t="n">
-        <v>340.1083926618793</v>
+        <v>249.9306823166041</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>91.34618151762533</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>450.3285375450872</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>943.648829263616</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1489.649729308197</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
         <v>2365.64850507718</v>
@@ -6961,28 +6961,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T35" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U35" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V35" t="n">
-        <v>2327.655591362702</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W35" t="n">
-        <v>2327.655591362702</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X35" t="n">
-        <v>1938.202986295759</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="Y35" t="n">
-        <v>1938.202986295759</v>
+        <v>1429.042058308403</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1754.512341385072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>1584.307223451061</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>1584.307223451061</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>1584.307223451061</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1584.307223451061</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1584.307223451061</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1584.307223451061</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>2162.832421259729</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V37" t="n">
-        <v>2162.832421259729</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W37" t="n">
-        <v>2162.832421259729</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X37" t="n">
-        <v>2162.832421259729</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>1939.720360076373</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>853.6512271106099</v>
+        <v>1438.683309919575</v>
       </c>
       <c r="C38" t="n">
-        <v>460.4757256135405</v>
+        <v>1045.507808422506</v>
       </c>
       <c r="D38" t="n">
-        <v>460.4757256135405</v>
+        <v>660.0666796391733</v>
       </c>
       <c r="E38" t="n">
-        <v>460.4757256135405</v>
+        <v>660.0666796391733</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>660.0666796391733</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
         <v>47.31297010154361</v>
@@ -7177,22 +7177,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
         <v>2365.64850507718</v>
@@ -7201,25 +7201,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U38" t="n">
-        <v>2352.700385585146</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V38" t="n">
-        <v>2010.593576288664</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W38" t="n">
-        <v>1639.594541256952</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="X38" t="n">
-        <v>1250.141936190009</v>
+        <v>1438.683309919575</v>
       </c>
       <c r="Y38" t="n">
-        <v>853.6512271106099</v>
+        <v>1438.683309919575</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013061</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O39" t="n">
-        <v>2131.283413522289</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.648505077179</v>
@@ -7362,16 +7362,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>596.6227173495417</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>330.643372170366</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W40" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X40" t="n">
         <v>47.31297010154361</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1604.036739400527</v>
+        <v>1028.547312597006</v>
       </c>
       <c r="C41" t="n">
-        <v>1604.036739400527</v>
+        <v>1028.547312597006</v>
       </c>
       <c r="D41" t="n">
-        <v>1604.036739400527</v>
+        <v>1028.547312597006</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.453214517072</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F41" t="n">
-        <v>784.5587760470498</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
         <v>47.31297010154361</v>
@@ -7414,19 +7414,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.79762054739</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N41" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P41" t="n">
         <v>2365.64850507718</v>
@@ -7441,22 +7441,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="Y41" t="n">
-        <v>2004.531485111924</v>
+        <v>1429.042058308403</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K42" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L42" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M42" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7535,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>598.7311070388184</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U43" t="n">
-        <v>313.2923152807194</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V43" t="n">
-        <v>47.31297010154361</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W43" t="n">
         <v>47.31297010154361</v>
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1169.999904830382</v>
+        <v>1319.948424733439</v>
       </c>
       <c r="C44" t="n">
-        <v>1169.999904830382</v>
+        <v>926.7729232363693</v>
       </c>
       <c r="D44" t="n">
-        <v>784.5587760470498</v>
+        <v>926.7729232363693</v>
       </c>
       <c r="E44" t="n">
-        <v>784.5587760470498</v>
+        <v>524.1893983529137</v>
       </c>
       <c r="F44" t="n">
-        <v>784.5587760470498</v>
+        <v>524.1893983529137</v>
       </c>
       <c r="G44" t="n">
-        <v>371.396020535053</v>
+        <v>111.0266428409168</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>111.0266428409168</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
         <v>2365.64850507718</v>
@@ -7678,22 +7678,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>2272.558354225519</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U44" t="n">
-        <v>2272.558354225519</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V44" t="n">
-        <v>1930.451544929038</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W44" t="n">
-        <v>1559.452509897325</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X44" t="n">
-        <v>1169.999904830382</v>
+        <v>1720.443170444836</v>
       </c>
       <c r="Y44" t="n">
-        <v>1169.999904830382</v>
+        <v>1720.443170444836</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M45" t="n">
-        <v>963.7331842818107</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.141762214911</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q45" t="n">
         <v>2365.64850507718</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>1814.230368139906</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>1530.899966071083</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7990,10 +7990,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>487.848403846783</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8066,13 +8066,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>270.6001074205032</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8227,13 +8227,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>580.6283116859817</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,13 +8294,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>165.3117977752925</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
@@ -8309,13 +8309,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>500.9472399802273</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585524</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8701,13 +8701,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>277.8952841518222</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8777,10 +8777,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585531</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8941,13 +8941,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>188.9766897477674</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>422.8212561536975</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9166,7 +9166,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9178,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0418287534719</v>
+        <v>556.6502691852513</v>
       </c>
       <c r="P17" t="n">
         <v>502.0059847475129</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,10 +9251,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095482</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9409,16 +9409,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9488,19 +9488,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>388.298409013546</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9646,16 +9646,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9731,10 +9731,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P24" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9877,13 +9877,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>324.3528815085492</v>
       </c>
       <c r="L26" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
@@ -9892,7 +9892,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>267.4792869621647</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N27" t="n">
-        <v>92.83741255226374</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,7 +10114,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10126,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10351,13 +10351,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>612.8252961895594</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10366,10 +10366,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10433,13 +10433,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>290.0251085634805</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>388.2984090135469</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>162.1578292717216</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10600,10 +10600,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189988</v>
       </c>
       <c r="N36" t="n">
-        <v>415.8062469585533</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10825,10 +10825,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10837,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,16 +10913,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>526.4333644537654</v>
+        <v>507.6329599720899</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,22 +11062,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11144,13 +11144,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>237.3130400541719</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9919810238536</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
@@ -11311,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>75.97706831454815</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>215.8716635375902</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -22761,13 +22761,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>56.63048077364803</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>115.4534090613801</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>227.8352342700393</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,10 +23001,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23083,13 +23083,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>301.9692282693465</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -23238,16 +23238,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>73.05296101018047</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>79.94842983532311</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>110.2241671243634</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>107.7142051367364</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.76444978932625</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>203.6030474630683</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23548,7 +23548,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -23557,7 +23557,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23785,7 +23785,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>56.57502869761205</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.4378364549519347</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>37.20039842073834</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23946,7 +23946,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>117.3244398042875</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>103.4214787759261</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>57.41845606807544</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24259,22 +24259,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>48.80965324549976</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>185.4818809700658</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>24.04094380275495</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>197.6026292027119</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>171.6980420273792</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24651,13 +24651,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>73.05296101018031</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>207.0283392387932</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24730,25 +24730,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>17.54100829227411</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -24891,16 +24891,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>131.803927412103</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>103.4214787759261</v>
+        <v>228.382857262048</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24970,7 +24970,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -24982,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>20.40302987259722</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>119.1636596221446</v>
+        <v>345.3933386024268</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25332,7 +25332,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>12.85879760301401</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25362,25 +25362,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25405,13 +25405,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>260.2009211822575</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3765639726332</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25602,7 +25602,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25636,7 +25636,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>385.846058344772</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.01995222300161</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>210.2831670182382</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>73.87720972648032</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>129.1063470730332</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947455</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644157.5372859371</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644157.5372859366</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644157.5372859366</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644157.5372859366</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644157.5372859365</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>644157.5372859371</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644157.5372859369</v>
+        <v>644157.5372859371</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644157.5372859366</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644157.5372859365</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644157.5372859373</v>
+        <v>644157.5372859371</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644157.5372859371</v>
+        <v>644157.5372859373</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644157.5372859373</v>
+        <v>644157.5372859371</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>180687.3047541646</v>
       </c>
       <c r="C2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="D2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="E2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="F2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="G2" t="n">
         <v>180687.3047541646</v>
@@ -26340,22 +26340,22 @@
         <v>180687.3047541646</v>
       </c>
       <c r="K2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="L2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="M2" t="n">
         <v>180687.3047541645</v>
       </c>
       <c r="N2" t="n">
+        <v>180687.3047541646</v>
+      </c>
+      <c r="O2" t="n">
+        <v>180687.3047541646</v>
+      </c>
+      <c r="P2" t="n">
         <v>180687.3047541645</v>
-      </c>
-      <c r="O2" t="n">
-        <v>180687.3047541645</v>
-      </c>
-      <c r="P2" t="n">
-        <v>180687.3047541646</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337103</v>
       </c>
       <c r="C4" t="n">
         <v>34799.20444337102</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="E4" t="n">
         <v>34799.20444337101</v>
@@ -26435,25 +26435,25 @@
         <v>34799.20444337102</v>
       </c>
       <c r="H4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="I4" t="n">
-        <v>34799.20444337103</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="J4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="K4" t="n">
-        <v>34799.20444337103</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="L4" t="n">
         <v>34799.20444337102</v>
       </c>
       <c r="M4" t="n">
-        <v>34799.20444337103</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="N4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="O4" t="n">
         <v>34799.20444337101</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121893.1629581246</v>
+        <v>-122567.1890843446</v>
       </c>
       <c r="C6" t="n">
-        <v>76302.64303362038</v>
+        <v>75628.61690740037</v>
       </c>
       <c r="D6" t="n">
-        <v>76302.64303362035</v>
+        <v>75628.6169074004</v>
       </c>
       <c r="E6" t="n">
-        <v>109930.2430336205</v>
+        <v>109256.2169074004</v>
       </c>
       <c r="F6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074004</v>
       </c>
       <c r="G6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074004</v>
       </c>
       <c r="H6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074003</v>
       </c>
       <c r="I6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074003</v>
       </c>
       <c r="J6" t="n">
-        <v>-44809.19133198299</v>
+        <v>-45483.217458203</v>
       </c>
       <c r="K6" t="n">
-        <v>109930.2430336203</v>
+        <v>109256.2169074004</v>
       </c>
       <c r="L6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074004</v>
       </c>
       <c r="M6" t="n">
-        <v>109930.2430336203</v>
+        <v>109256.2169074003</v>
       </c>
       <c r="N6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074004</v>
       </c>
       <c r="O6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074004</v>
       </c>
       <c r="P6" t="n">
-        <v>109930.2430336204</v>
+        <v>109256.2169074003</v>
       </c>
     </row>
   </sheetData>
@@ -34710,10 +34710,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>338.7299125089989</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
+        <v>591.4121262692951</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>178.2129853711913</v>
-      </c>
-      <c r="N3" t="n">
-        <v>591.4121262692951</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34947,13 +34947,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>431.5098203481975</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>75.25145091837423</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
@@ -35029,13 +35029,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>351.8287486424433</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35421,13 +35421,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>127.593836910897</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35497,10 +35497,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
+        <v>591.4121262692951</v>
+      </c>
+      <c r="N12" t="n">
         <v>330.4341341043864</v>
-      </c>
-      <c r="N12" t="n">
-        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35661,13 +35661,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>44.47799132937524</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>330.4341341043856</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35898,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>44.47799132937547</v>
+        <v>407.086431761155</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,10 +35971,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553815</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36129,16 +36129,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36208,19 +36208,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>302.9262961593793</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36366,16 +36366,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36451,10 +36451,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36612,7 +36612,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>117.1778397212395</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N27" t="n">
-        <v>7.465299698097082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36846,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37086,10 +37086,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>199.9647617065623</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>44.47799132937548</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37320,10 +37320,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="N36" t="n">
-        <v>330.4341341043866</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37557,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37633,16 +37633,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7458055648765</v>
+        <v>414.945401083201</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>144.92591800486</v>
       </c>
       <c r="N42" t="n">
-        <v>484.6198681696869</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38031,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
